--- a/biology/Histoire de la zoologie et de la botanique/Sidney_Frederic_Harmer/Sidney_Frederic_Harmer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sidney_Frederic_Harmer/Sidney_Frederic_Harmer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir Sidney Frederic Harmer est un zoologiste britannique, né le 9 mars 1862 à Norfolk et mort le 22 octobre 1950.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du géologue Frederic William Harmer (1835-1923) de Mary née Lyon. Il reçoit son Bachelor of Sciences à l’University College de Londres en 1880, son Bachelor of Arts au King's College (Cambridge) en 1883, son Master of Arts en 1886 et son Doctorat of Sciences en 1893.
 Il se marie avec Laura R. Howell le 2 septembre 1891, union dont naîtra quatre enfants. Il est maître assistant de sciences naturelles à Cambridge en 1886, assistant au King’s College de 1890 à 1908, il est conservateur de zoologie de 1909 à 1921, puis directeur du Natural History Museum de Londres de 1919 à 1927.
-Harmer est membre de diverses sociétés savantes dont la British Association for the Advancement of Science, la Société géologique de Londres, la Royal Society, la Société linnéenne de Londres (qu’il préside de 1927 à 1931). Il est anobli en 1920. Il reçoit la médaille linnéenne en 1934. Avec Sir Arthur Everett Shipley (1861-1927), il participe à la publication de The Cambridge natural history[1].
+Harmer est membre de diverses sociétés savantes dont la British Association for the Advancement of Science, la Société géologique de Londres, la Royal Society, la Société linnéenne de Londres (qu’il préside de 1927 à 1931). Il est anobli en 1920. Il reçoit la médaille linnéenne en 1934. Avec Sir Arthur Everett Shipley (1861-1927), il participe à la publication de The Cambridge natural history.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1896 : Polyzoa dans The Cambridge Natural History, Sir Arthur Everett Shipley (1861-1927) et Sir S.F. Harmer (dir.) (Macmillan and Co.: Londres).
 1898 : avec Sir William Henry Flower (1831-1899), Catalogue of the Lepidoptera Phalænæ in the British Museum (Londres).
@@ -578,7 +594,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Plusieurs volumes sont disponibles en format numérique sur Archive.org.
@@ -610,7 +628,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
